--- a/public/static/files/Mau_Import_Device.xlsx
+++ b/public/static/files/Mau_Import_Device.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truongdb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21832779-6D3A-4C1F-B344-CFB0D56FFD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D12216-A691-474B-A223-99057597E592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>MAC Number</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Gateway</t>
-  </si>
-  <si>
     <t>Thiết bị 1</t>
   </si>
   <si>
-    <t>MAC1</t>
+    <t>Tên thiết bị</t>
+  </si>
+  <si>
+    <t>Tên team</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MAC00001</t>
+  </si>
+  <si>
+    <t>TEAM_01</t>
   </si>
 </sst>
 </file>
@@ -84,9 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,9 +111,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +151,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -251,7 +257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -393,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,41 +407,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C1B08C-B6B1-4586-AAA6-787B92F09921}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/static/files/Mau_Import_Device.xlsx
+++ b/public/static/files/Mau_Import_Device.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D12216-A691-474B-A223-99057597E592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B929619-F835-47F2-905B-6CC5084B4964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>MAC Number</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Tên thiết bị</t>
   </si>
   <si>
-    <t>Tên team</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>TEAM_01</t>
+  </si>
+  <si>
+    <t>Mã team</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,30 +429,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
     </row>

--- a/public/static/files/Mau_Import_Device.xlsx
+++ b/public/static/files/Mau_Import_Device.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truongdb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B929619-F835-47F2-905B-6CC5084B4964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A3629-35D2-4F42-BF75-B49BF8DFD3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="12645" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
-    <t>MAC Number</t>
-  </si>
-  <si>
     <t>Thiết bị 1</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>Mã team</t>
+  </si>
+  <si>
+    <t>Số MAC</t>
   </si>
 </sst>
 </file>
@@ -111,9 +111,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +151,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -257,7 +257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,57 +410,57 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
